--- a/pred_ohlcv/54_21/2020-01-21 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FNB ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9810677.847119041</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5700236.636719039</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5642457.858119039</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3361360.382319039</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3832934.748619039</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4066213.361619039</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4080040.528819039</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4080040.528819039</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4556616.899819039</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3645887.053919039</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3768581.226219038</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4106345.748319039</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3899591.925519038</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2937982.127519039</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2938226.127519039</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2282500.867819038</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2236818.140919038</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1690265.425619038</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1690505.425619038</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>9120829.784319038</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>9962856.124319037</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>38634216.65634773</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>56746332.32764773</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>64225893.16344773</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>69755894.70444773</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>67226895.42297548</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>70957803.27097549</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>45954943.07047549</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>73800680.10597549</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>66469464.11737549</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>41454396.73339367</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>41265457.74089367</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FNB ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9810677.847119041</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5700236.636719039</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5641997.858119039</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3361360.382319039</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>4556616.899819039</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3645887.053919039</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3768581.226219038</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4106345.748319039</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3899591.925519038</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2937982.127519039</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2938226.127519039</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2282500.867819038</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>9962856.124319037</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>38634216.65634773</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>56746332.32764773</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>64225893.16344773</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>63303716.66197547</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>67226895.42297548</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>70957803.27097549</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>45954943.07047549</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>73800680.10597549</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>82841240.2557755</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>41454396.73339367</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>41265457.74089367</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
